--- a/create_statistics/拡張統計情報調査.xlsx
+++ b/create_statistics/拡張統計情報調査.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20383"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF2B35F-FFCC-4030-AB7B-90E39D0C2EB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357D9AE1-833C-449B-9C64-E4638BA8B8CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="232">
   <si>
     <t>拡張統計情報の動作確認</t>
     <rPh sb="0" eb="2">
@@ -1083,9 +1083,6 @@
     <t xml:space="preserve"> Execution Time: 134.570 ms</t>
   </si>
   <si>
-    <t>psql -U postgres -p 5432 -d sample -c  "CREATE STATISTICS mcv_lists_stats (mcv) ON a, b, c FROM test;"</t>
-  </si>
-  <si>
     <t>ANALYZE</t>
   </si>
   <si>
@@ -1157,6 +1154,74 @@
     </rPh>
     <rPh sb="49" eb="51">
       <t>インショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>psql -U postgres -p 5432 -d sample -c  "CREATE STATISTICS mcv_lists_stats (mcv) ON a, b, c FROM test;"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>psql -U postgres -p 5432 -d sample -c "SELECT m.* FROM pg_statistic_ext join pg_statistic_ext_data on (oid = stxoid), pg_mcv_list_items(stxdmcv) m WHERE stxname = 'mcv_lists_stats';"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> index |   values   |  nulls  |      frequency       |     base_frequency</t>
+  </si>
+  <si>
+    <t>-------+------------+---------+----------------------+------------------------</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0 | {0,47,47}  | {f,f,f} |               0.0113 |          6.5300666e-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1 | {56,56,56} | {f,f,f} | 0.010966666666666666 | 1.3189366296296294e-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     2 | {0,13,13}  | {f,f,f} |               0.0109 |  6.075943399999999e-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     3 | {0,91,91}  | {f,f,f} |               0.0109 |  6.075943399999999e-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     4 | {26,26,26} | {f,f,f} | 0.010833333333333334 |  1.271412037037037e-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     5 | {54,54,54} | {f,f,f} | 0.010766666666666667 | 1.2480839629629632e-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     6 | {78,78,78} | {f,f,f} |               0.0107 | 1.2250429999999998e-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     7 | {28,28,28} | {f,f,f} |               0.0107 | 1.2250429999999998e-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     8 | {70,70,70} | {f,f,f} |               0.0107 | 1.2250429999999998e-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     9 | {0,41,41}  | {f,f,f} |               0.0107 |  5.855018599999999e-05</t>
+  </si>
+  <si>
+    <t>mcv統計量を参照したい場合、専用の解析関数が必要になります。</t>
+    <rPh sb="3" eb="6">
+      <t>トウケイリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カイセキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒツヨウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1601,10 +1666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:O256"/>
+  <dimension ref="B1:O271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="B257" sqref="B257"/>
+    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
+      <selection activeCell="B259" sqref="B259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2732,7 +2797,7 @@
     </row>
     <row r="236" spans="2:2" s="2" customFormat="1">
       <c r="B236" s="2" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
     </row>
     <row r="237" spans="2:2" s="2" customFormat="1">
@@ -2743,12 +2808,12 @@
     <row r="238" spans="2:2" s="2" customFormat="1"/>
     <row r="239" spans="2:2" s="2" customFormat="1">
       <c r="B239" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="240" spans="2:2" s="2" customFormat="1">
       <c r="B240" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="241" spans="2:2" s="2" customFormat="1"/>
@@ -2759,17 +2824,17 @@
     </row>
     <row r="243" spans="2:2" s="2" customFormat="1">
       <c r="B243" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="244" spans="2:2" s="2" customFormat="1">
       <c r="B244" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="245" spans="2:2" s="2" customFormat="1">
       <c r="B245" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="246" spans="2:2" s="2" customFormat="1">
@@ -2784,7 +2849,7 @@
     </row>
     <row r="248" spans="2:2" s="2" customFormat="1">
       <c r="B248" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="249" spans="2:2" s="2" customFormat="1">
@@ -2799,12 +2864,12 @@
     </row>
     <row r="251" spans="2:2" s="2" customFormat="1">
       <c r="B251" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="252" spans="2:2" s="2" customFormat="1">
       <c r="B252" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="253" spans="2:2" s="2" customFormat="1">
@@ -2814,12 +2879,82 @@
     </row>
     <row r="255" spans="2:2">
       <c r="B255" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="256" spans="2:2">
       <c r="B256" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2">
+      <c r="B258" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2" s="2" customFormat="1">
+      <c r="B259" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="260" spans="2:2" s="2" customFormat="1">
+      <c r="B260" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2" s="2" customFormat="1">
+      <c r="B261" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2" s="2" customFormat="1">
+      <c r="B262" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2" s="2" customFormat="1">
+      <c r="B263" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2" s="2" customFormat="1">
+      <c r="B264" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2" s="2" customFormat="1">
+      <c r="B265" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="266" spans="2:2" s="2" customFormat="1">
+      <c r="B266" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2" s="2" customFormat="1">
+      <c r="B267" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="268" spans="2:2" s="2" customFormat="1">
+      <c r="B268" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2" s="2" customFormat="1">
+      <c r="B269" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="270" spans="2:2" s="2" customFormat="1">
+      <c r="B270" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2" s="2" customFormat="1">
+      <c r="B271" s="2" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
